--- a/NformTester/NformTester/keywordscripts/TST1332_ImportDeviceFromFlatFileWithTheSpecifiedSeparator.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1332_ImportDeviceFromFlatFileWithTheSpecifiedSeparator.xlsx
@@ -3592,9 +3592,6 @@
     <t>.NET Framework</t>
   </si>
   <si>
-    <t>10.146.85.10</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -3643,9 +3640,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -3653,12 +3647,6 @@
   </si>
   <si>
     <t>;Create some devices.</t>
-  </si>
-  <si>
-    <t>10.146.85.11</t>
-  </si>
-  <si>
-    <t>"ABC GXT UPS_11"</t>
   </si>
   <si>
     <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
@@ -3725,6 +3713,20 @@
   <si>
     <t>"C:\Nform\user\export\DataLog_ups.csv"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_1$</t>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_1_NAME$</t>
   </si>
 </sst>
 </file>
@@ -4682,7 +4684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4753,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -4772,13 +4776,13 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -4788,13 +4792,13 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>795</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -4813,7 +4817,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4844,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4869,7 +4873,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4894,7 +4898,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>577</v>
@@ -4904,22 +4908,22 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>799</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>800</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="2"/>
@@ -4929,13 +4933,13 @@
         <v>765</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>577</v>
@@ -4945,22 +4949,22 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>799</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>800</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="2"/>
@@ -4976,7 +4980,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>756</v>
@@ -5001,7 +5005,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -5024,7 +5028,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>19</v>
@@ -5053,7 +5057,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>19</v>
@@ -5082,10 +5086,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>578</v>
@@ -5111,10 +5115,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>578</v>
@@ -5123,7 +5127,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -5142,10 +5146,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>89</v>
@@ -5171,7 +5175,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>594</v>
@@ -5183,7 +5187,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5202,7 +5206,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>594</v>
@@ -5214,7 +5218,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I17" s="5" t="b">
         <v>1</v>
@@ -5235,7 +5239,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>594</v>
@@ -5266,7 +5270,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>594</v>
@@ -5295,7 +5299,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>599</v>
@@ -5324,7 +5328,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="5"/>
@@ -5343,10 +5347,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>578</v>
@@ -5368,10 +5372,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>578</v>
@@ -5380,7 +5384,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -5395,10 +5399,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>184</v>
@@ -5420,7 +5424,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>585</v>
@@ -5445,7 +5449,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -5464,10 +5468,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>183</v>
@@ -5489,7 +5493,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>602</v>
@@ -5514,7 +5518,7 @@
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>602</v>
@@ -5539,7 +5543,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>602</v>
@@ -5551,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5566,7 +5570,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>602</v>
@@ -5578,7 +5582,7 @@
         <v>7</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="I31" s="5" t="b">
         <v>1</v>
@@ -5595,7 +5599,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>602</v>
@@ -5620,7 +5624,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>602</v>
@@ -5645,7 +5649,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>599</v>
@@ -5670,7 +5674,7 @@
         <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>599</v>
@@ -5695,7 +5699,7 @@
         <v>35</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>602</v>
@@ -5720,7 +5724,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>599</v>
@@ -5745,7 +5749,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>599</v>
@@ -5770,7 +5774,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="5"/>
@@ -5789,7 +5793,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>602</v>
@@ -5801,7 +5805,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -5816,7 +5820,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>602</v>
@@ -5841,7 +5845,7 @@
         <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>602</v>
@@ -5866,7 +5870,7 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>599</v>
@@ -5891,7 +5895,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>599</v>
@@ -5916,7 +5920,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>602</v>
@@ -5941,7 +5945,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>599</v>
@@ -5966,7 +5970,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>599</v>
@@ -5991,7 +5995,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="5"/>
@@ -6010,7 +6014,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>602</v>
@@ -6022,7 +6026,7 @@
         <v>4</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -6037,7 +6041,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>602</v>
@@ -6062,7 +6066,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>602</v>
@@ -6087,7 +6091,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>599</v>
@@ -6112,7 +6116,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>599</v>
@@ -6137,7 +6141,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>602</v>
@@ -6162,7 +6166,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>599</v>
@@ -6187,7 +6191,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>599</v>
@@ -6212,7 +6216,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="5"/>
@@ -6231,7 +6235,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>602</v>
@@ -6243,7 +6247,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -6258,7 +6262,7 @@
         <v>58</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>602</v>
@@ -6283,7 +6287,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>602</v>
@@ -6308,7 +6312,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>599</v>
@@ -6333,7 +6337,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>599</v>
@@ -6358,7 +6362,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>602</v>
@@ -6383,7 +6387,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>602</v>
@@ -6408,7 +6412,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>622</v>
@@ -6433,7 +6437,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>622</v>
@@ -6458,10 +6462,10 @@
         <v>66</v>
       </c>
       <c r="D67" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>99</v>
@@ -6483,7 +6487,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -6502,7 +6506,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>19</v>
@@ -6527,13 +6531,13 @@
         <v>69</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>2</v>
@@ -6552,10 +6556,10 @@
         <v>70</v>
       </c>
       <c r="D71" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E71" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>578</v>
@@ -6564,7 +6568,7 @@
         <v>59</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>803</v>
+        <v>825</v>
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
@@ -6579,10 +6583,10 @@
         <v>71</v>
       </c>
       <c r="D72" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E72" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>578</v>
@@ -6591,7 +6595,7 @@
         <v>59</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
@@ -6606,10 +6610,10 @@
         <v>72</v>
       </c>
       <c r="D73" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>801</v>
-      </c>
-      <c r="E73" s="11" t="s">
-        <v>802</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>99</v>
@@ -6631,7 +6635,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="5"/>
@@ -6650,7 +6654,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
@@ -6668,7 +6672,7 @@
         <v>75</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>19</v>
@@ -6692,7 +6696,7 @@
         <v>76</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>19</v>
@@ -6716,10 +6720,10 @@
         <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>578</v>
@@ -6728,7 +6732,7 @@
         <v>3</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -6742,10 +6746,10 @@
         <v>78</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>184</v>
@@ -6766,7 +6770,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>585</v>
@@ -6790,10 +6794,10 @@
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>99</v>

--- a/NformTester/NformTester/keywordscripts/TST1332_ImportDeviceFromFlatFileWithTheSpecifiedSeparator.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1332_ImportDeviceFromFlatFileWithTheSpecifiedSeparator.xlsx
@@ -3640,9 +3640,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>;Clear operation.</t>
   </si>
   <si>
@@ -3715,18 +3712,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
+    <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_1$</t>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
+    <t>$SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_1_NAME$</t>
+    <t>$SNMP_device_1$</t>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_1_NAME$</t>
   </si>
 </sst>
 </file>
@@ -4684,8 +4685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71:H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4776,7 +4777,7 @@
         <v>768</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -4817,7 +4818,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -4848,7 +4849,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -4867,13 +4868,13 @@
         <v>773</v>
       </c>
       <c r="B6" s="10">
-        <v>41114</v>
+        <v>41446</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -4930,11 +4931,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>802</v>
-      </c>
+        <v>822</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -4971,11 +4970,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>776</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -4999,13 +4996,17 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>776</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -5020,10 +5021,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -5050,7 +5049,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -5079,7 +5078,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -5108,7 +5107,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -5127,7 +5126,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -5139,7 +5138,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -5168,7 +5167,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -5187,7 +5186,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -5198,10 +5197,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>783</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>7</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I17" s="5" t="b">
         <v>1</v>
@@ -5233,7 +5232,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5260,11 +5259,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>785</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5292,9 +5289,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>785</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>776</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5321,14 +5320,14 @@
     </row>
     <row r="21" spans="1:15" ht="15">
       <c r="A21" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
         <v>20</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="5"/>
@@ -5343,6 +5342,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5384,7 +5387,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -5449,7 +5452,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -5555,7 +5558,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -5582,7 +5585,7 @@
         <v>7</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I31" s="5" t="b">
         <v>1</v>
@@ -5774,7 +5777,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="5"/>
@@ -5805,7 +5808,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
@@ -5995,7 +5998,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="5"/>
@@ -6026,7 +6029,7 @@
         <v>4</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
@@ -6216,7 +6219,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="5"/>
@@ -6247,7 +6250,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -6487,7 +6490,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -6537,7 +6540,7 @@
         <v>19</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>2</v>
@@ -6635,7 +6638,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="5"/>
@@ -6654,7 +6657,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
@@ -6720,10 +6723,10 @@
         <v>77</v>
       </c>
       <c r="D78" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>812</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>813</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>578</v>
@@ -6732,7 +6735,7 @@
         <v>3</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
@@ -6746,10 +6749,10 @@
         <v>78</v>
       </c>
       <c r="D79" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="E79" s="11" t="s">
         <v>812</v>
-      </c>
-      <c r="E79" s="11" t="s">
-        <v>813</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>184</v>
@@ -6770,7 +6773,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>585</v>
@@ -6794,10 +6797,10 @@
         <v>80</v>
       </c>
       <c r="D81" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="E81" s="11" t="s">
         <v>812</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>813</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>99</v>
